--- a/Experiments' results/Experiments' results - the number of nodes' effect on the ZKP of HC.xlsx
+++ b/Experiments' results/Experiments' results - the number of nodes' effect on the ZKP of HC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAR\Desktop\מצגת ואקסלים סופיים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5EC734-1796-440F-9FBA-9830DE7E4DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56567288-2CC0-4508-8E37-1C5ADBBB5656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מדידות בהתאם לערך הביט" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>bit = 0</t>
-  </si>
-  <si>
-    <t>כמות התקשורת (MB)</t>
   </si>
   <si>
     <t>השימוש בזיכרון של המוכיח (MB)</t>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>תוצאות הניסויים עבור המימוש של הוכחה באפס ידיעה למעגל המילטוני בגרף</t>
+  </si>
+  <si>
+    <t>אורך התקשורת (MB)</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
+              <a:t>גודל הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1224,7 +1224,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות הזיכרון של המוודאת (</a:t>
+                  <a:t>גודל הזיכרון של המוודאת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -2540,7 +2540,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות התקשורת כתלות במספר הצמתים</a:t>
+              <a:t>אורך התקשורת כתלות במספר הצמתים</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -2911,7 +2911,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות התקשורת (</a:t>
+                  <a:t>אורך התקשורת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -3102,7 +3102,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות הזיכרון של המוכיח כתלות במספר הצמתים</a:t>
+              <a:t>גודל הזיכרון של המוכיח כתלות במספר הצמתים</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -3473,7 +3473,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות הזיכרון של המוכיח (</a:t>
+                  <a:t>גודל הזיכרון של המוכיח (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -3664,7 +3664,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
+              <a:t>גודל הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -4036,7 +4036,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות הזיכרון של המוודאת (</a:t>
+                  <a:t>גודל הזיכרון של המוודאת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -4785,7 +4785,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="he-IL"/>
-              <a:t>כמות התקשורת כתלות במספר הצמתים</a:t>
+              <a:t>אורך התקשורת כתלות במספר הצמתים</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4835,7 +4835,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>כמות התקשורת (MB)</c:v>
+                  <c:v>אורך התקשורת (MB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5170,7 +5170,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="he-IL"/>
-                  <a:t>כמות התקשורת (</a:t>
+                  <a:t>אורך התקשורת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -6430,7 +6430,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="he-IL"/>
-              <a:t>כמות התקשורת כתלות במספר הצמתים</a:t>
+              <a:t>אורך התקשורת כתלות במספר הצמתים</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6479,7 +6479,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>כמות התקשורת (MB)</c:v>
+                  <c:v>אורך התקשורת (MB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6814,7 +6814,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="he-IL"/>
-                  <a:t>כמות התקשורת (</a:t>
+                  <a:t>אורך התקשורת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -6978,7 +6978,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="he-IL"/>
-              <a:t>כמות</a:t>
+              <a:t>גודל</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="he-IL" baseline="0"/>
@@ -7363,7 +7363,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="he-IL"/>
-                  <a:t>כמות</a:t>
+                  <a:t>גודל</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="he-IL" baseline="0"/>
@@ -7545,7 +7545,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
+              <a:t>גודל הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7932,7 +7932,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות הזיכרון של המוודאת (</a:t>
+                  <a:t>גודל הזיכרון של המוודאת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -8123,7 +8123,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות הזיכרון של המוכיח כתלות במספר הצמתים</a:t>
+              <a:t>גודל הזיכרון של המוכיח כתלות במספר הצמתים</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8510,7 +8510,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות הזיכרון של המוכיח (</a:t>
+                  <a:t>גודל הזיכרון של המוכיח (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -17853,7 +17853,7 @@
   <dimension ref="A2:H149"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17871,7 +17871,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -17888,19 +17888,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -18105,25 +18105,25 @@
     </row>
     <row r="61" spans="2:8" ht="21" x14ac:dyDescent="0.4">
       <c r="B61" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="F61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="H61" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -18344,7 +18344,7 @@
   <dimension ref="A2:AQ27"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18395,7 +18395,7 @@
   <sheetData>
     <row r="2" spans="1:43" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
@@ -18408,130 +18408,130 @@
     <row r="7" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="M7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="P7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="T7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="W7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="Y7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Z7" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="AA7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AB7" s="8" t="s">
+      <c r="AC7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="AD7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AF7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="AH7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AJ7" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="AK7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AM7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AN7" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="AO7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AP7" s="8" t="s">
+      <c r="AQ7" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="AQ7" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -19232,7 +19232,7 @@
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -19243,19 +19243,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="F21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">

--- a/Experiments' results/Experiments' results - the number of nodes' effect on the ZKP of HC.xlsx
+++ b/Experiments' results/Experiments' results - the number of nodes' effect on the ZKP of HC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAR\Desktop\מצגת ואקסלים סופיים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56567288-2CC0-4508-8E37-1C5ADBBB5656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CB5A27-B93E-497B-9594-E53F747A12ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,12 +48,6 @@
     <t>bit = 0</t>
   </si>
   <si>
-    <t>השימוש בזיכרון של המוכיח (MB)</t>
-  </si>
-  <si>
-    <t>השימוש בזיכרון של המוודאת (MB)</t>
-  </si>
-  <si>
     <t>זמן הריצה של המוכיח (s)</t>
   </si>
   <si>
@@ -87,7 +81,13 @@
     <t>תוצאות הניסויים עבור המימוש של הוכחה באפס ידיעה למעגל המילטוני בגרף</t>
   </si>
   <si>
-    <t>אורך התקשורת (MB)</t>
+    <t>מס' הביטים שעוברים בתקשורת (MB)</t>
+  </si>
+  <si>
+    <t>צריכת הזיכרון של המוכיח (MB)</t>
+  </si>
+  <si>
+    <t>צריכת הזיכרון של המוודאת (MB)</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>גודל הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
+              <a:t>צריכת הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1224,7 +1224,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>גודל הזיכרון של המוודאת (</a:t>
+                  <a:t>צריכת הזיכרון של המוודאת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -2540,7 +2540,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>אורך התקשורת כתלות במספר הצמתים</a:t>
+              <a:t>מס' הביטים שעוברים בתקשורת כתלות במספר הצמתים</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -2911,7 +2911,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>אורך התקשורת (</a:t>
+                  <a:t>מס' הביטים שעוברים בתקשורת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -3102,7 +3102,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>גודל הזיכרון של המוכיח כתלות במספר הצמתים</a:t>
+              <a:t>צריכת הזיכרון של המוכיח כתלות במספר הצמתים</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -3473,7 +3473,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>גודל הזיכרון של המוכיח (</a:t>
+                  <a:t>צריכת הזיכרון של המוכיח (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -3664,7 +3664,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>גודל הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
+              <a:t>צריכת הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -4036,7 +4036,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>גודל הזיכרון של המוודאת (</a:t>
+                  <a:t>צריכת הזיכרון של המוודאת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -4785,7 +4785,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="he-IL"/>
-              <a:t>אורך התקשורת כתלות במספר הצמתים</a:t>
+              <a:t>מס' הביטים שעוברים</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t> ב</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL"/>
+              <a:t>תקשורת כתלות במספר הצמתים</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4835,7 +4843,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>אורך התקשורת (MB)</c:v>
+                  <c:v>מס' הביטים שעוברים בתקשורת (MB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5170,7 +5178,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="he-IL"/>
-                  <a:t>אורך התקשורת (</a:t>
+                  <a:t>מס' הביטים שעוברים בתקשורת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -6430,7 +6438,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="he-IL"/>
-              <a:t>אורך התקשורת כתלות במספר הצמתים</a:t>
+              <a:t>מס'</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL" baseline="0"/>
+              <a:t> הביטים</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="he-IL"/>
+              <a:t> שעוברים בתקשורת כתלות במספר הצמתים</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6479,7 +6495,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>אורך התקשורת (MB)</c:v>
+                  <c:v>מס' הביטים שעוברים בתקשורת (MB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6814,7 +6830,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="he-IL"/>
-                  <a:t>אורך התקשורת (</a:t>
+                  <a:t>מס' הביטים שעוברים בתקשורת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -6978,7 +6994,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="he-IL"/>
-              <a:t>גודל</a:t>
+              <a:t>צריכת</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="he-IL" baseline="0"/>
@@ -7363,7 +7379,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="he-IL"/>
-                  <a:t>גודל</a:t>
+                  <a:t>צריכת</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="he-IL" baseline="0"/>
@@ -7545,7 +7561,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>גודל הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
+              <a:t>צריכת הזיכרון של המוודאת כתלות במספר הצמתים</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7932,7 +7948,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>גודל הזיכרון של המוודאת (</a:t>
+                  <a:t>צריכת הזיכרון של המוודאת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -8123,7 +8139,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>גודל הזיכרון של המוכיח כתלות במספר הצמתים</a:t>
+              <a:t>צריכת הזיכרון של המוכיח כתלות במספר הצמתים</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8207,8 +8223,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.2566445411386338E-2"/>
-                  <c:y val="8.2813090819295151E-2"/>
+                  <c:x val="-3.9071614428326046E-2"/>
+                  <c:y val="8.2087640804582043E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -8510,7 +8526,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>גודל הזיכרון של המוכיח (</a:t>
+                  <a:t>צריכת הזיכרון של המוכיח (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -17409,15 +17425,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1097280</xdr:colOff>
+      <xdr:colOff>1097281</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>149860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>375313</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:rowOff>68239</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17445,15 +17461,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>336549</xdr:colOff>
+      <xdr:colOff>336550</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:rowOff>48261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1717039</xdr:colOff>
+      <xdr:colOff>563672</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:rowOff>104383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17522,10 +17538,10 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1868466</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17852,8 +17868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H149"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17863,7 +17879,7 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.59765625" customWidth="1"/>
     <col min="11" max="11" width="8.796875" customWidth="1"/>
@@ -17871,7 +17887,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -17888,19 +17904,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -18105,25 +18121,25 @@
     </row>
     <row r="61" spans="2:8" ht="21" x14ac:dyDescent="0.4">
       <c r="B61" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -18343,8 +18359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2420A1-0083-4B19-B55E-DBB5B303186D}">
   <dimension ref="A2:AQ27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView rightToLeft="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18353,49 +18369,49 @@
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.3984375" customWidth="1"/>
+    <col min="13" max="13" width="28.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.59765625" customWidth="1"/>
     <col min="15" max="15" width="26" customWidth="1"/>
     <col min="16" max="16" width="7" customWidth="1"/>
     <col min="17" max="17" width="14.3984375" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
     <col min="19" max="19" width="20.3984375" customWidth="1"/>
-    <col min="20" max="20" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="26" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.3984375" customWidth="1"/>
+    <col min="27" max="27" width="28.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="26" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20.3984375" customWidth="1"/>
-    <col min="34" max="34" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="24.59765625" customWidth="1"/>
     <col min="36" max="36" width="26" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="7.296875" customWidth="1"/>
     <col min="38" max="38" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:43" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
@@ -18408,130 +18424,130 @@
     <row r="7" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="P7" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="W7" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="AD7" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AF7" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AI7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="AK7" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AM7" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN7" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ7" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="AP7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -19232,7 +19248,7 @@
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -19243,19 +19259,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
